--- a/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
+++ b/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="140">
   <si>
     <t>土地坐落</t>
   </si>
@@ -309,6 +309,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>亞太電信股份有限公司</t>
   </si>
   <si>
@@ -325,6 +334,9 @@
   </si>
   <si>
     <t>中國合成橡膠股份有限公 司</t>
+  </si>
+  <si>
+    <t>2012-02-13</t>
   </si>
   <si>
     <t>名</t>
@@ -2171,13 +2183,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
@@ -2196,13 +2208,22 @@
       <c r="G1" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
@@ -2219,13 +2240,22 @@
       <c r="G2" s="2">
         <v>7250000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
@@ -2242,13 +2272,22 @@
       <c r="G3" s="2">
         <v>34400</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
@@ -2265,13 +2304,22 @@
       <c r="G4" s="2">
         <v>9000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
@@ -2288,13 +2336,22 @@
       <c r="G5" s="2">
         <v>225960</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
@@ -2311,13 +2368,22 @@
       <c r="G6" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
@@ -2334,13 +2400,22 @@
       <c r="G7" s="2">
         <v>143290</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>33</v>
@@ -2356,6 +2431,15 @@
       </c>
       <c r="G8" s="2">
         <v>2500000</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2">
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -2373,22 +2457,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2396,14 +2480,14 @@
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2413,22 +2497,22 @@
         <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2436,7 +2520,7 @@
         <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2465,16 +2549,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2482,16 +2566,16 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2499,16 +2583,16 @@
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2516,16 +2600,16 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2533,16 +2617,16 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2550,16 +2634,16 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2567,16 +2651,16 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
+++ b/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="142">
   <si>
     <t>土地坐落</t>
   </si>
@@ -309,6 +309,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -333,7 +336,10 @@
     <t>國揚實業股份有限公司</t>
   </si>
   <si>
-    <t>中國合成橡膠股份有限公 司</t>
+    <t>中國合成橡膠股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-02-13</t>
@@ -2183,13 +2189,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
@@ -2217,13 +2223,16 @@
       <c r="J1" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
@@ -2241,21 +2250,24 @@
         <v>7250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
@@ -2273,21 +2285,24 @@
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
@@ -2305,21 +2320,24 @@
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
@@ -2337,21 +2355,24 @@
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
@@ -2369,21 +2390,24 @@
         <v>1500000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
@@ -2401,21 +2425,24 @@
         <v>143290</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>33</v>
@@ -2433,12 +2460,15 @@
         <v>2500000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>828</v>
       </c>
     </row>
@@ -2457,22 +2487,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2480,14 +2510,14 @@
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2497,22 +2527,22 @@
         <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2520,7 +2550,7 @@
         <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2549,16 +2579,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2566,16 +2596,16 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2583,16 +2613,16 @@
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2600,16 +2630,16 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2617,16 +2647,16 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2634,16 +2664,16 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2651,16 +2681,16 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
+++ b/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="147">
   <si>
     <t>土地坐落</t>
   </si>
@@ -312,6 +312,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -321,6 +324,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>亞太電信股份有限公司</t>
   </si>
   <si>
@@ -342,7 +351,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-02-13</t>
+  </si>
+  <si>
+    <t>tmpf4561</t>
   </si>
   <si>
     <t>名</t>
@@ -2189,13 +2204,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
@@ -2226,13 +2241,22 @@
       <c r="K1" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
@@ -2250,24 +2274,33 @@
         <v>7250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
@@ -2285,24 +2318,33 @@
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
@@ -2320,24 +2362,33 @@
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2">
+        <v>828</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" s="2">
         <v>106</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="2">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
@@ -2355,24 +2406,33 @@
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2">
+        <v>828</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="2">
         <v>107</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
@@ -2390,24 +2450,33 @@
         <v>1500000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
@@ -2425,24 +2494,33 @@
         <v>143290</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>828</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>33</v>
@@ -2460,16 +2538,25 @@
         <v>2500000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>828</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="2">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2487,22 +2574,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2510,14 +2597,14 @@
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2527,22 +2614,22 @@
         <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2550,7 +2637,7 @@
         <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2579,16 +2666,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2596,16 +2683,16 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2613,16 +2700,16 @@
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2630,16 +2717,16 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2647,16 +2734,16 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2664,16 +2751,16 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2681,16 +2768,16 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
+++ b/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
@@ -19,9 +19,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="147">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="152">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市萬華區福星段一小段00910000地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段五小段00010019地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段五小段00090001地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00080002地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00070000地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00070003地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00070004地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00080051地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440001地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440002地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440004地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440005地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11440000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11420000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段11430001</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10660000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段1O95O0OO地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10640000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市新庄段重劃小段02240000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10890000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段00550000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段10630000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市牛挑灣段松梅小段01850000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>38280分之775</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>廖素惠</t>
+  </si>
+  <si>
+    <t>糜素惠</t>
+  </si>
+  <si>
+    <t>寥素惠</t>
+  </si>
+  <si>
+    <t>陳明文</t>
+  </si>
+  <si>
+    <t>97年05月30日</t>
+  </si>
+  <si>
+    <t>97年06月23日</t>
+  </si>
+  <si>
+    <t>97年05月23日</t>
+  </si>
+  <si>
+    <t>93年07月13日</t>
+  </si>
+  <si>
+    <t>97年05月</t>
+  </si>
+  <si>
+    <t>97年06月24日</t>
+  </si>
+  <si>
+    <t>99年06月03日</t>
+  </si>
+  <si>
+    <t>夫妻贈與</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>LL1J貝賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-02-13</t>
+  </si>
+  <si>
+    <t>tmpf4561</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,160 +216,37 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市萬華區福星段一小段 0091-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段五小段 0001-0019 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段五小段 0009-0001 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0008-0002 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0007-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0007-0003 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0007-0004 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 0008-0051 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0001 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0002 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0004 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0005 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1144-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1142-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段1143-0001</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1066-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1O95-O0OO地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1064-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市新庄段重劃小段 0224-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1089-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段0055-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段1063-0000地號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市牛挑灣段松梅小 段0185-0000地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>38280分之 775</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>廖素惠</t>
-  </si>
-  <si>
-    <t>糜素惠</t>
-  </si>
-  <si>
-    <t>寥素惠</t>
-  </si>
-  <si>
-    <t>陳明文</t>
-  </si>
-  <si>
-    <t>97年05月 30日</t>
-  </si>
-  <si>
-    <t>97年06月 23日</t>
-  </si>
-  <si>
-    <t>97年05月 23日</t>
-  </si>
-  <si>
-    <t>93年07月 13日</t>
-  </si>
-  <si>
-    <t>97年05月</t>
-  </si>
-  <si>
-    <t>97年06月 24日</t>
-  </si>
-  <si>
-    <t>99年06月 03日</t>
-  </si>
-  <si>
-    <t>夫妻贈與</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>LL1J 貝賣</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市萬華區福星段00132-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 00272-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段四小段 00797-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市末廣段五小段 00969-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段00551-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市安福段00552-000 建號</t>
-  </si>
-  <si>
-    <t>98年04月 01日</t>
-  </si>
-  <si>
-    <t>97年09月 18日</t>
-  </si>
-  <si>
-    <t>97年09月 30日</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>1’371，200</t>
+    <t>臺北市萬華區福星段00132000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00272000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段四小段00797000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市末廣段五小段00969000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段00551000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市安福段00552000建號</t>
+  </si>
+  <si>
+    <t>98年04月01日</t>
+  </si>
+  <si>
+    <t>97年09月18日</t>
+  </si>
+  <si>
+    <t>97年09月30日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>1371200</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -222,13 +273,13 @@
     <t>臺灣銀行嘉義分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行南嘉義 分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行仁愛分 行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行嘉義分 行</t>
+    <t>合作金庫商業銀行南嘉義分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行仁愛分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行嘉義分行</t>
   </si>
   <si>
     <t>華南商業銀行營業部</t>
@@ -249,13 +300,13 @@
     <t>星展銀行南京東路分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行嘉義分 行</t>
+    <t>國泰世華商業銀行嘉義分行</t>
   </si>
   <si>
     <t>永豐商業銀行嘉義分行</t>
   </si>
   <si>
-    <t>匯豐（台灣）商業銀行嘉義 分行</t>
+    <t>匯豐（台灣）商業銀行嘉義分行</t>
   </si>
   <si>
     <t>彰化商業銀行城内分行</t>
@@ -291,12 +342,6 @@
     <t>靡素惠</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -309,27 +354,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>亞太電信股份有限公司</t>
   </si>
   <si>
@@ -351,15 +375,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-02-13</t>
-  </si>
-  <si>
-    <t>tmpf4561</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -378,25 +393,25 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字晝及多</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
+    <t>(九）珠寶古董字晝及多</t>
+  </si>
+  <si>
+    <t>財產種類</t>
   </si>
   <si>
     <t>朱銘雕刻</t>
   </si>
   <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>!額：新臺幣500, 000元）</t>
+    <t>!額：新臺幣500000元）</t>
   </si>
   <si>
     <t>價</t>
@@ -429,7 +444,7 @@
     <t>得意還本終身</t>
   </si>
   <si>
-    <t>新富貴保本投資鏈結型保險 第7期</t>
+    <t>新富貴保本投資鏈結型保險第7期</t>
   </si>
   <si>
     <t>創世變額萬能壽險</t>
@@ -438,25 +453,25 @@
     <t>安泰增額養老壽險</t>
   </si>
   <si>
-    <t>台灣人壽富利長紅利率變動 型年金保險</t>
+    <t>台灣人壽富利長紅利率變動型年金保險</t>
   </si>
   <si>
     <t>陳〇廷</t>
   </si>
   <si>
-    <t>88.05.07--108.05.7</t>
-  </si>
-  <si>
-    <t>100.06.13--106.06.12</t>
-  </si>
-  <si>
-    <t>94.12.30--100.12.30</t>
-  </si>
-  <si>
-    <t>94.12.30--100.12.30(被保 人:陳〇廷）</t>
-  </si>
-  <si>
-    <t>86.04.10--101.04.10</t>
+    <t>88.05.07108.05.7</t>
+  </si>
+  <si>
+    <t>100.06.13106.06.12</t>
+  </si>
+  <si>
+    <t>94.12.30100.12.30</t>
+  </si>
+  <si>
+    <t>94.12.30100.12.30(被保人:陳〇廷）</t>
+  </si>
+  <si>
+    <t>86.04.10101.04.10</t>
   </si>
   <si>
     <t>97.05.19</t>
@@ -818,13 +833,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,603 +861,1107 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2">
         <v>21780045</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2">
+        <v>828</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2">
+        <v>828</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2">
         <v>2700000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2">
+        <v>828</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2">
         <v>1920000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2">
+        <v>828</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2">
         <v>2712600</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2">
+        <v>828</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2">
         <v>1890000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2">
+        <v>828</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2">
         <v>1950000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2">
+        <v>828</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="2">
+        <v>828</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>253</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2">
         <v>4554000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="2">
+        <v>828</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2">
         <v>4248000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="2">
+        <v>828</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>8.11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2">
         <v>145980</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="2">
+        <v>828</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>10.89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2">
         <v>196020</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="2">
+        <v>828</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>338</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H14" s="2">
         <v>6084000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="2">
+        <v>828</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2">
         <v>2106000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="2">
+        <v>828</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>149</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H16" s="2">
         <v>2682000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="2">
+        <v>828</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>27297</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H17" s="2">
         <v>23666499</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="2">
+        <v>828</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>520</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H18" s="2">
         <v>8948</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="2">
+        <v>828</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>1540</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H19" s="2">
         <v>1309000</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="2">
+        <v>828</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>2308</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H20" s="2">
         <v>1731000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="2">
+        <v>828</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>4425</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H21" s="2">
         <v>3761350</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="2">
+        <v>828</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>1264</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H22" s="2">
         <v>872160</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="2">
+        <v>828</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>2450</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H23" s="2">
         <v>2082500</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="2">
+        <v>828</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>1337</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H24" s="2">
         <v>568225</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="2">
+        <v>828</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1460,25 +1979,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1486,22 +2005,22 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>353.36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2">
         <v>492300</v>
@@ -1512,22 +2031,22 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2">
         <v>163.18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2">
         <v>363300</v>
@@ -1538,22 +2057,22 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2">
         <v>954.39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2">
         <v>2807400</v>
@@ -1564,22 +2083,22 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2">
         <v>300.11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2">
         <v>878600</v>
@@ -1590,25 +2109,25 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2">
         <v>404.75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1616,22 +2135,22 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2">
         <v>216.6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2">
         <v>1456500</v>
@@ -1652,22 +2171,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1675,16 +2194,16 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1696,16 +2215,16 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1717,16 +2236,16 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1738,16 +2257,16 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1759,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1780,16 +2299,16 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1801,16 +2320,16 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1822,16 +2341,16 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1843,16 +2362,16 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1864,16 +2383,16 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1885,16 +2404,16 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1906,16 +2425,16 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1927,16 +2446,16 @@
         <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1948,16 +2467,16 @@
         <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1969,16 +2488,16 @@
         <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1990,16 +2509,16 @@
         <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -2011,16 +2530,16 @@
         <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -2032,16 +2551,16 @@
         <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -2053,16 +2572,16 @@
         <v>90</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -2074,16 +2593,16 @@
         <v>91</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2095,16 +2614,16 @@
         <v>92</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -2116,16 +2635,16 @@
         <v>94</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -2137,16 +2656,16 @@
         <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -2158,16 +2677,16 @@
         <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -2179,16 +2698,16 @@
         <v>97</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F26" s="2">
         <v>5028.06</v>
@@ -2212,43 +2731,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2256,10 +2775,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
         <v>725000</v>
@@ -2268,28 +2787,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2">
         <v>7250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2">
         <v>828</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="N2" s="2">
         <v>104</v>
@@ -2300,10 +2819,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2">
         <v>3440</v>
@@ -2312,28 +2831,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2">
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2">
         <v>828</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2">
         <v>105</v>
@@ -2344,10 +2863,10 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
         <v>900000</v>
@@ -2356,28 +2875,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2">
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L4" s="2">
         <v>828</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="N4" s="2">
         <v>106</v>
@@ -2388,10 +2907,10 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
         <v>22596</v>
@@ -2400,28 +2919,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G5" s="2">
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L5" s="2">
         <v>828</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="N5" s="2">
         <v>107</v>
@@ -2432,10 +2951,10 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
         <v>150000</v>
@@ -2444,28 +2963,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2">
         <v>1500000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2">
         <v>828</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="N6" s="2">
         <v>108</v>
@@ -2476,10 +2995,10 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2">
         <v>14329</v>
@@ -2488,28 +3007,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G7" s="2">
         <v>143290</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L7" s="2">
         <v>828</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="N7" s="2">
         <v>109</v>
@@ -2520,10 +3039,10 @@
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
         <v>250000</v>
@@ -2532,28 +3051,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G8" s="2">
         <v>2500000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L8" s="2">
         <v>828</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="N8" s="2">
         <v>110</v>
@@ -2574,22 +3093,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2597,14 +3116,14 @@
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2614,22 +3133,22 @@
         <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2637,14 +3156,14 @@
         <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2">
         <v>500000</v>
@@ -2666,16 +3185,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2683,16 +3202,16 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2700,16 +3219,16 @@
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2717,16 +3236,16 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2734,16 +3253,16 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2751,16 +3270,16 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2768,16 +3287,16 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
+++ b/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="129">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市萬華區福星段一小段00910000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>嘉義市嘉義市末廣段五小段00010019地號</t>
@@ -153,72 +156,51 @@
     <t>陳明文</t>
   </si>
   <si>
+    <t>97年06月23日</t>
+  </si>
+  <si>
+    <t>97年05月23日</t>
+  </si>
+  <si>
+    <t>93年07月13日</t>
+  </si>
+  <si>
+    <t>97年05月</t>
+  </si>
+  <si>
+    <t>97年06月24日</t>
+  </si>
+  <si>
+    <t>99年06月03日</t>
+  </si>
+  <si>
+    <t>夫妻贈與</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>LL1J貝賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-02-13</t>
+  </si>
+  <si>
+    <t>tmpf4561</t>
+  </si>
+  <si>
+    <t>臺北市萬華區福星段00132000建號</t>
+  </si>
+  <si>
     <t>97年05月30日</t>
   </si>
   <si>
-    <t>97年06月23日</t>
-  </si>
-  <si>
-    <t>97年05月23日</t>
-  </si>
-  <si>
-    <t>93年07月13日</t>
-  </si>
-  <si>
-    <t>97年05月</t>
-  </si>
-  <si>
-    <t>97年06月24日</t>
-  </si>
-  <si>
-    <t>99年06月03日</t>
-  </si>
-  <si>
-    <t>夫妻贈與</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>LL1J貝賣</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-02-13</t>
-  </si>
-  <si>
-    <t>tmpf4561</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市萬華區福星段00132000建號</t>
-  </si>
-  <si>
     <t>嘉義市嘉義市末廣段四小段00272000建號</t>
   </si>
   <si>
@@ -249,201 +231,153 @@
     <t>1371200</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
+    <t>臺灣銀行太保分行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>臺灣銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南嘉義分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行仁愛分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行營業部</t>
+  </si>
+  <si>
+    <t>華南商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行台南分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行嘉南分行</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市農會信用部</t>
+  </si>
+  <si>
+    <t>星展銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>匯豐（台灣）商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行城内分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行總行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行台南分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行東嘉義分行</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>靡素惠</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>统聯</t>
+  </si>
+  <si>
+    <t>東立</t>
+  </si>
+  <si>
+    <t>民興國際開發</t>
+  </si>
+  <si>
+    <t>國揚實業股份有限公司</t>
+  </si>
+  <si>
+    <t>中國合成橡膠股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字晝及多</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>!額：新臺幣500000元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>朱銘雕刻</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>臺灣銀行太保分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南嘉義分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行仁愛分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行營業部</t>
-  </si>
-  <si>
-    <t>華南商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行台南分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行嘉南分行</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市農會信用部</t>
-  </si>
-  <si>
-    <t>星展銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>匯豐（台灣）商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行城内分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行總行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行台南分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行東嘉義分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>靡素惠</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>亞太電信股份有限公司</t>
-  </si>
-  <si>
-    <t>统聯</t>
-  </si>
-  <si>
-    <t>東立</t>
-  </si>
-  <si>
-    <t>民興國際開發</t>
-  </si>
-  <si>
-    <t>國揚實業股份有限公司</t>
-  </si>
-  <si>
-    <t>中國合成橡膠股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字晝及多</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>朱銘雕刻</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>!額：新臺幣500000元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>得意還本終身</t>
+  </si>
+  <si>
+    <t>88.05.07108.05.7</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
     <t>台灣人壽</t>
   </si>
   <si>
-    <t>得意還本終身</t>
-  </si>
-  <si>
     <t>新富貴保本投資鏈結型保險第7期</t>
   </si>
   <si>
@@ -457,9 +391,6 @@
   </si>
   <si>
     <t>陳〇廷</t>
-  </si>
-  <si>
-    <t>88.05.07108.05.7</t>
   </si>
   <si>
     <t>100.06.13106.06.12</t>
@@ -833,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,31 +813,37 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H2" s="2">
-        <v>21780045</v>
+        <v>30000</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>54</v>
@@ -918,7 +855,7 @@
         <v>56</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2" s="2">
         <v>828</v>
@@ -927,24 +864,30 @@
         <v>57</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>45</v>
@@ -953,7 +896,7 @@
         <v>51</v>
       </c>
       <c r="H3" s="2">
-        <v>30000</v>
+        <v>2700000</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>54</v>
@@ -965,7 +908,7 @@
         <v>56</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="2">
         <v>828</v>
@@ -974,33 +917,39 @@
         <v>57</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H4" s="2">
-        <v>2700000</v>
+        <v>1920000</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>54</v>
@@ -1012,7 +961,7 @@
         <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M4" s="2">
         <v>828</v>
@@ -1021,24 +970,30 @@
         <v>57</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>46</v>
@@ -1047,7 +1002,7 @@
         <v>51</v>
       </c>
       <c r="H5" s="2">
-        <v>1920000</v>
+        <v>2712600</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>54</v>
@@ -1059,7 +1014,7 @@
         <v>56</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" s="2">
         <v>828</v>
@@ -1068,24 +1023,30 @@
         <v>57</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>46</v>
@@ -1094,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="H6" s="2">
-        <v>2712600</v>
+        <v>1890000</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>54</v>
@@ -1106,7 +1067,7 @@
         <v>56</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6" s="2">
         <v>828</v>
@@ -1115,24 +1076,30 @@
         <v>57</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>46</v>
@@ -1141,7 +1108,7 @@
         <v>51</v>
       </c>
       <c r="H7" s="2">
-        <v>1890000</v>
+        <v>1950000</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>54</v>
@@ -1153,7 +1120,7 @@
         <v>56</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="2">
         <v>828</v>
@@ -1162,24 +1129,30 @@
         <v>57</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>46</v>
@@ -1188,7 +1161,7 @@
         <v>51</v>
       </c>
       <c r="H8" s="2">
-        <v>1950000</v>
+        <v>300000</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>54</v>
@@ -1200,7 +1173,7 @@
         <v>56</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="2">
         <v>828</v>
@@ -1209,33 +1182,39 @@
         <v>57</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2">
-        <v>300000</v>
+        <v>4554000</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>54</v>
@@ -1247,7 +1226,7 @@
         <v>56</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M9" s="2">
         <v>828</v>
@@ -1256,21 +1235,27 @@
         <v>57</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>41</v>
@@ -1282,7 +1267,7 @@
         <v>52</v>
       </c>
       <c r="H10" s="2">
-        <v>4554000</v>
+        <v>4248000</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>54</v>
@@ -1294,7 +1279,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M10" s="2">
         <v>828</v>
@@ -1303,24 +1288,30 @@
         <v>57</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>236</v>
+        <v>8.11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>47</v>
@@ -1329,7 +1320,7 @@
         <v>52</v>
       </c>
       <c r="H11" s="2">
-        <v>4248000</v>
+        <v>145980</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>54</v>
@@ -1341,7 +1332,7 @@
         <v>56</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M11" s="2">
         <v>828</v>
@@ -1350,24 +1341,30 @@
         <v>57</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>8.11</v>
+        <v>10.89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>47</v>
@@ -1376,7 +1373,7 @@
         <v>52</v>
       </c>
       <c r="H12" s="2">
-        <v>145980</v>
+        <v>196020</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>54</v>
@@ -1388,7 +1385,7 @@
         <v>56</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M12" s="2">
         <v>828</v>
@@ -1397,33 +1394,39 @@
         <v>57</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>10.89</v>
+        <v>338</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="2">
-        <v>196020</v>
+        <v>6084000</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>54</v>
@@ -1435,7 +1438,7 @@
         <v>56</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M13" s="2">
         <v>828</v>
@@ -1444,24 +1447,30 @@
         <v>57</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>338</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>46</v>
@@ -1470,7 +1479,7 @@
         <v>51</v>
       </c>
       <c r="H14" s="2">
-        <v>6084000</v>
+        <v>2106000</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>54</v>
@@ -1482,7 +1491,7 @@
         <v>56</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M14" s="2">
         <v>828</v>
@@ -1491,33 +1500,39 @@
         <v>57</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="2">
-        <v>2106000</v>
+        <v>2682000</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>54</v>
@@ -1529,7 +1544,7 @@
         <v>56</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M15" s="2">
         <v>828</v>
@@ -1538,33 +1553,39 @@
         <v>57</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>149</v>
+        <v>27297</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H16" s="2">
-        <v>2682000</v>
+        <v>23666499</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>54</v>
@@ -1576,7 +1597,7 @@
         <v>56</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M16" s="2">
         <v>828</v>
@@ -1585,33 +1606,39 @@
         <v>57</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>27297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="2">
-        <v>27297</v>
+        <v>520</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H17" s="2">
-        <v>23666499</v>
+        <v>8948</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>54</v>
@@ -1623,7 +1650,7 @@
         <v>56</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M17" s="2">
         <v>828</v>
@@ -1632,33 +1659,39 @@
         <v>57</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.0202455590386625</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>10.5276907001045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>520</v>
+        <v>1540</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H18" s="2">
-        <v>8948</v>
+        <v>1309000</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>54</v>
@@ -1670,7 +1703,7 @@
         <v>56</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M18" s="2">
         <v>828</v>
@@ -1679,24 +1712,30 @@
         <v>57</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="2">
-        <v>1540</v>
+        <v>2308</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>46</v>
@@ -1705,7 +1744,7 @@
         <v>51</v>
       </c>
       <c r="H19" s="2">
-        <v>1309000</v>
+        <v>1731000</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>54</v>
@@ -1717,7 +1756,7 @@
         <v>56</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M19" s="2">
         <v>828</v>
@@ -1726,33 +1765,39 @@
         <v>57</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="2">
-        <v>2308</v>
+        <v>4425</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20" s="2">
-        <v>1731000</v>
+        <v>3761350</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>54</v>
@@ -1764,7 +1809,7 @@
         <v>56</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M20" s="2">
         <v>828</v>
@@ -1773,24 +1818,30 @@
         <v>57</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="2">
-        <v>4425</v>
+        <v>1264</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>50</v>
@@ -1799,7 +1850,7 @@
         <v>52</v>
       </c>
       <c r="H21" s="2">
-        <v>3761350</v>
+        <v>872160</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>54</v>
@@ -1811,7 +1862,7 @@
         <v>56</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M21" s="2">
         <v>828</v>
@@ -1820,24 +1871,30 @@
         <v>57</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" s="2">
-        <v>1264</v>
+        <v>2450</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>50</v>
@@ -1846,7 +1903,7 @@
         <v>52</v>
       </c>
       <c r="H22" s="2">
-        <v>872160</v>
+        <v>2082500</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>54</v>
@@ -1858,7 +1915,7 @@
         <v>56</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M22" s="2">
         <v>828</v>
@@ -1867,33 +1924,39 @@
         <v>57</v>
       </c>
       <c r="O22" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C23" s="2">
-        <v>2450</v>
+        <v>1337</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H23" s="2">
-        <v>2082500</v>
+        <v>568225</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>54</v>
@@ -1905,7 +1968,7 @@
         <v>56</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M23" s="2">
         <v>828</v>
@@ -1914,54 +1977,13 @@
         <v>57</v>
       </c>
       <c r="O23" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1337</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="2">
-        <v>568225</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="2">
-        <v>828</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O24" s="2">
-        <v>38</v>
+      <c r="P23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>668.5</v>
       </c>
     </row>
   </sheetData>
@@ -1971,7 +1993,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1981,66 +2003,66 @@
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>353.36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="H1" s="1">
+        <v>492300</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
-        <v>353.36</v>
+        <v>163.18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H2" s="2">
-        <v>492300</v>
+        <v>363300</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2">
-        <v>163.18</v>
+        <v>954.39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>46</v>
@@ -2049,110 +2071,84 @@
         <v>51</v>
       </c>
       <c r="H3" s="2">
-        <v>363300</v>
+        <v>2807400</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2">
-        <v>954.39</v>
+        <v>300.11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2">
-        <v>2807400</v>
+        <v>878600</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2">
+        <v>404.75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="2">
-        <v>300.11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="2">
-        <v>878600</v>
+      <c r="H5" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2">
-        <v>404.75</v>
+        <v>216.6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="2">
-        <v>216.6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H6" s="2">
         <v>1456500</v>
       </c>
     </row>
@@ -2163,7 +2159,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2171,548 +2167,525 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>44</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>42731</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>42731</v>
+        <v>21427</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>21427</v>
+        <v>15360</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>15360</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>2902</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>382</v>
+        <v>43187</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>78</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>43187</v>
+        <v>93183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>93183</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>80</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>308</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
+        <v>81</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>1234</v>
+        <v>112459</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>112459</v>
+        <v>93148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>93148</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>8440</v>
+        <v>251450</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>251450</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>104</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>10000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>195000</v>
+        <v>34002</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>34002</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>2844</v>
+        <v>11236</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>11236</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>2744</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>1179</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>1813</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>1426</v>
+        <v>2490943</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5028.06</v>
+      </c>
       <c r="G25" s="2">
-        <v>2490943</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>97</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="2">
-        <v>5028.06</v>
-      </c>
-      <c r="G26" s="2">
         <v>146668.51</v>
       </c>
     </row>
@@ -2723,7 +2696,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2737,16 +2710,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2772,28 +2745,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2">
-        <v>725000</v>
+        <v>3440</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2">
-        <v>7250000</v>
+        <v>34400</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>55</v>
@@ -2802,7 +2775,7 @@
         <v>56</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2">
         <v>828</v>
@@ -2811,33 +2784,33 @@
         <v>57</v>
       </c>
       <c r="N2" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2">
-        <v>3440</v>
+        <v>900000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2">
-        <v>34400</v>
+        <v>9000000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>55</v>
@@ -2846,7 +2819,7 @@
         <v>56</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2">
         <v>828</v>
@@ -2855,33 +2828,33 @@
         <v>57</v>
       </c>
       <c r="N3" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2">
-        <v>900000</v>
+        <v>22596</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2">
-        <v>9000000</v>
+        <v>225960</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>55</v>
@@ -2890,7 +2863,7 @@
         <v>56</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" s="2">
         <v>828</v>
@@ -2899,33 +2872,33 @@
         <v>57</v>
       </c>
       <c r="N4" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
-        <v>22596</v>
+        <v>150000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2">
-        <v>225960</v>
+        <v>1500000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>55</v>
@@ -2934,7 +2907,7 @@
         <v>56</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2">
         <v>828</v>
@@ -2943,33 +2916,33 @@
         <v>57</v>
       </c>
       <c r="N5" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2">
-        <v>150000</v>
+        <v>14329</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2">
-        <v>1500000</v>
+        <v>143290</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>55</v>
@@ -2978,7 +2951,7 @@
         <v>56</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L6" s="2">
         <v>828</v>
@@ -2987,33 +2960,33 @@
         <v>57</v>
       </c>
       <c r="N6" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2">
-        <v>14329</v>
+        <v>250000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2">
-        <v>143290</v>
+        <v>2500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>55</v>
@@ -3022,7 +2995,7 @@
         <v>56</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="2">
         <v>828</v>
@@ -3031,50 +3004,6 @@
         <v>57</v>
       </c>
       <c r="N7" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>110</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2">
-        <v>250000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2500000</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="2">
-        <v>828</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="2">
         <v>110</v>
       </c>
     </row>
@@ -3085,7 +3014,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3093,82 +3022,59 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>128</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3177,7 +3083,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3185,118 +3091,101 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>139</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
+++ b/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="131">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市萬華區福星段一小段00910000地號</t>
+  </si>
+  <si>
     <t>嘉義市嘉義市末廣段五小段00010019地號</t>
   </si>
   <si>
@@ -156,6 +159,9 @@
     <t>陳明文</t>
   </si>
   <si>
+    <t>97年05月30日</t>
+  </si>
+  <si>
     <t>97年06月23日</t>
   </si>
   <si>
@@ -198,9 +204,6 @@
     <t>臺北市萬華區福星段00132000建號</t>
   </si>
   <si>
-    <t>97年05月30日</t>
-  </si>
-  <si>
     <t>嘉義市嘉義市末廣段四小段00272000建號</t>
   </si>
   <si>
@@ -313,6 +316,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>亞太電信股份有限公司</t>
   </si>
   <si>
     <t>统聯</t>
@@ -764,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,1167 +828,1220 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2">
-        <v>30000</v>
+        <v>21780045</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" s="2">
         <v>828</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2">
-        <v>2700000</v>
+        <v>30000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2">
         <v>828</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2">
-        <v>1920000</v>
+        <v>2700000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" s="2">
         <v>828</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2">
-        <v>2712600</v>
+        <v>1920000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5" s="2">
         <v>828</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2">
-        <v>1890000</v>
+        <v>2712600</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" s="2">
         <v>828</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2">
-        <v>1950000</v>
+        <v>1890000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="2">
         <v>828</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2">
-        <v>300000</v>
+        <v>1950000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="2">
         <v>828</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>253</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2">
-        <v>4554000</v>
+        <v>300000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M9" s="2">
         <v>828</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>253</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2">
-        <v>4248000</v>
+        <v>4554000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" s="2">
         <v>828</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>8.11</v>
+        <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2">
-        <v>145980</v>
+        <v>4248000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M11" s="2">
         <v>828</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>8.11</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>10.89</v>
+        <v>8.11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2">
-        <v>196020</v>
+        <v>145980</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M12" s="2">
         <v>828</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>10.89</v>
+        <v>8.11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>338</v>
+        <v>10.89</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2">
-        <v>6084000</v>
+        <v>196020</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M13" s="2">
         <v>828</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>338</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>117</v>
+        <v>338</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H14" s="2">
-        <v>2106000</v>
+        <v>6084000</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M14" s="2">
         <v>828</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>117</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2">
-        <v>2682000</v>
+        <v>2106000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M15" s="2">
         <v>828</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>27297</v>
+        <v>149</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H16" s="2">
-        <v>23666499</v>
+        <v>2682000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M16" s="2">
         <v>828</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O16" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <v>27297</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>520</v>
+        <v>27297</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H17" s="2">
-        <v>8948</v>
+        <v>23666499</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M17" s="2">
         <v>828</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
-        <v>0.0202455590386625</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>10.5276907001045</v>
+        <v>27297</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>1540</v>
+        <v>520</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H18" s="2">
-        <v>1309000</v>
+        <v>8948</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M18" s="2">
         <v>828</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0.0202455590386625</v>
       </c>
       <c r="Q18" s="2">
-        <v>1540</v>
+        <v>10.5276907001045</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>2308</v>
+        <v>1540</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H19" s="2">
-        <v>1731000</v>
+        <v>1309000</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M19" s="2">
         <v>828</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>2308</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>4425</v>
+        <v>2308</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2">
-        <v>3761350</v>
+        <v>1731000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M20" s="2">
         <v>828</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O20" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2">
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>4425</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>1264</v>
+        <v>4425</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H21" s="2">
-        <v>872160</v>
+        <v>3761350</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M21" s="2">
         <v>828</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O21" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="2">
         <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>1264</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>2450</v>
+        <v>1264</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H22" s="2">
-        <v>2082500</v>
+        <v>872160</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M22" s="2">
         <v>828</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O22" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P22" s="2">
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>2450</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>1337</v>
+        <v>2450</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H23" s="2">
-        <v>568225</v>
+        <v>2082500</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M23" s="2">
         <v>828</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1337</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="2">
+        <v>568225</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O23" s="2">
+      <c r="K24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="2">
+        <v>828</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="2">
         <v>38</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P24" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q24" s="2">
         <v>668.5</v>
       </c>
     </row>
@@ -1993,163 +2052,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1">
-        <v>353.36</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1">
-        <v>492300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="2">
-        <v>163.18</v>
+        <v>353.36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2">
-        <v>363300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>492300</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2">
+        <v>828</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>353.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="2">
-        <v>954.39</v>
+        <v>163.18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2">
-        <v>2807400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>363300</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2">
+        <v>828</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="2">
+        <v>44</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>163.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="2">
-        <v>300.11</v>
+        <v>954.39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2">
-        <v>878600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>2807400</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="2">
+        <v>828</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="2">
+        <v>45</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>954.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="2">
-        <v>404.75</v>
+        <v>300.11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="2">
+        <v>878600</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2">
+        <v>828</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="2">
+        <v>46</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>300.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="2">
-        <v>216.6</v>
+        <v>404.75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2">
+        <v>69</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2">
+        <v>828</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="2">
+        <v>47</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>404.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2">
+        <v>216.6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="2">
         <v>1456500</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2">
+        <v>828</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="2">
+        <v>48</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>216.6</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2167,16 +2441,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -2185,507 +2459,528 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>21427</v>
+        <v>42731</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>15360</v>
+        <v>21427</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>2902</v>
+        <v>15360</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>382</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>43187</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>93183</v>
+        <v>43187</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>308</v>
+        <v>93183</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>1234</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>112459</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>93148</v>
+        <v>112459</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>8440</v>
+        <v>93148</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>251450</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>104</v>
+        <v>251450</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>10000</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>195000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>34002</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>2844</v>
+        <v>34002</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>11236</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>2744</v>
+        <v>11236</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>1179</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>1813</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>1426</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>2490943</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
+        <v>96</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>2490943</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>97</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="D26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="2">
         <v>5028.06</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="2">
         <v>146668.51</v>
       </c>
     </row>
@@ -2696,7 +2991,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2710,13 +3005,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2745,265 +3040,309 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2">
-        <v>3440</v>
+        <v>725000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2">
-        <v>34400</v>
+        <v>7250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2">
         <v>828</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N2" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2">
-        <v>900000</v>
+        <v>3440</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2">
-        <v>9000000</v>
+        <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2">
         <v>828</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2">
-        <v>22596</v>
+        <v>900000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2">
-        <v>225960</v>
+        <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2">
         <v>828</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N4" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2">
-        <v>150000</v>
+        <v>22596</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G5" s="2">
-        <v>1500000</v>
+        <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2">
         <v>828</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N5" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>14329</v>
+        <v>150000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" s="2">
-        <v>143290</v>
+        <v>1500000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2">
         <v>828</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N6" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2">
-        <v>250000</v>
+        <v>14329</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2">
-        <v>2500000</v>
+        <v>143290</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="2">
         <v>828</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>110</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2">
+        <v>250000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="2">
+      <c r="J8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="2">
+        <v>828</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="2">
         <v>110</v>
       </c>
     </row>
@@ -3014,7 +3353,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3022,58 +3361,75 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>128</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>500000</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>44</v>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3083,7 +3439,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3091,101 +3447,118 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
+        <v>138</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>139</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>128</v>
+      <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
+++ b/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="132">
   <si>
     <t>name</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>1371200</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>臺灣銀行太保分行</t>
@@ -2134,7 +2137,7 @@
         <v>492300</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>57</v>
@@ -2187,7 +2190,7 @@
         <v>363300</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>57</v>
@@ -2240,7 +2243,7 @@
         <v>2807400</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>57</v>
@@ -2293,7 +2296,7 @@
         <v>878600</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>57</v>
@@ -2346,7 +2349,7 @@
         <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>57</v>
@@ -2399,7 +2402,7 @@
         <v>1456500</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>57</v>
@@ -2441,13 +2444,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>45</v>
@@ -2462,13 +2465,13 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>45</v>
@@ -2483,13 +2486,13 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>42</v>
@@ -2504,13 +2507,13 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>45</v>
@@ -2525,13 +2528,13 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>42</v>
@@ -2546,13 +2549,13 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>45</v>
@@ -2567,13 +2570,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
@@ -2588,13 +2591,13 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>45</v>
@@ -2609,13 +2612,13 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>42</v>
@@ -2630,13 +2633,13 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>42</v>
@@ -2651,13 +2654,13 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>42</v>
@@ -2672,16 +2675,16 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -2693,13 +2696,13 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>45</v>
@@ -2714,13 +2717,13 @@
         <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>43</v>
@@ -2735,13 +2738,13 @@
         <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>45</v>
@@ -2756,13 +2759,13 @@
         <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
@@ -2777,13 +2780,13 @@
         <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>42</v>
@@ -2798,13 +2801,13 @@
         <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>42</v>
@@ -2819,13 +2822,13 @@
         <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>42</v>
@@ -2840,13 +2843,13 @@
         <v>90</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>45</v>
@@ -2861,13 +2864,13 @@
         <v>91</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>45</v>
@@ -2882,13 +2885,13 @@
         <v>92</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>45</v>
@@ -2903,13 +2906,13 @@
         <v>94</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>42</v>
@@ -2924,13 +2927,13 @@
         <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>42</v>
@@ -2945,13 +2948,13 @@
         <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>45</v>
@@ -2966,13 +2969,13 @@
         <v>97</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>42</v>
@@ -3005,13 +3008,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3043,7 +3046,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
@@ -3055,13 +3058,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2">
         <v>7250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>57</v>
@@ -3087,7 +3090,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -3099,13 +3102,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2">
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>57</v>
@@ -3131,7 +3134,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>42</v>
@@ -3143,13 +3146,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2">
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>57</v>
@@ -3175,7 +3178,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>42</v>
@@ -3187,13 +3190,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2">
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>57</v>
@@ -3219,7 +3222,7 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
@@ -3231,13 +3234,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2">
         <v>1500000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>57</v>
@@ -3263,7 +3266,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>42</v>
@@ -3275,13 +3278,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2">
         <v>143290</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>57</v>
@@ -3307,7 +3310,7 @@
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
@@ -3319,13 +3322,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" s="2">
         <v>2500000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>57</v>
@@ -3361,14 +3364,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3378,16 +3381,16 @@
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3395,22 +3398,22 @@
         <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3418,7 +3421,7 @@
         <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -3447,16 +3450,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3464,16 +3467,16 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3481,16 +3484,16 @@
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3498,16 +3501,16 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3515,16 +3518,16 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3532,16 +3535,16 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3549,16 +3552,16 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
+++ b/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="135">
   <si>
     <t>name</t>
   </si>
@@ -237,88 +237,97 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行太保分行</t>
   </si>
   <si>
+    <t>臺灣銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南嘉義分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行仁愛分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行營業部</t>
+  </si>
+  <si>
+    <t>華南商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行台南分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行嘉南分行</t>
+  </si>
+  <si>
+    <t>嘉義縣朴子市農會信用部</t>
+  </si>
+  <si>
+    <t>星展銀行南京東路分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>匯豐（台灣）商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行城内分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行總行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行台南分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行東嘉義分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南嘉義分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行仁愛分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行營業部</t>
-  </si>
-  <si>
-    <t>華南商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行台南分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行嘉南分行</t>
-  </si>
-  <si>
-    <t>嘉義縣朴子市農會信用部</t>
-  </si>
-  <si>
-    <t>星展銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>匯豐（台灣）商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行城内分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行總行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行台南分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行東嘉義分行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>靡素惠</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>亞太電信股份有限公司</t>
@@ -2436,13 +2445,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
@@ -2453,538 +2462,1056 @@
         <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>42731</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42731</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2">
+        <v>828</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="2">
         <v>72</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>42731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2">
+        <v>21427</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2">
+        <v>828</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="2">
         <v>73</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>21427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15360</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2">
+        <v>828</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="2">
         <v>74</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>15360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>2902</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2">
+        <v>828</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>382</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2">
+        <v>828</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>43187</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2">
+        <v>828</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>93183</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2">
+        <v>828</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>308</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2">
+        <v>828</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>1234</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2">
+        <v>828</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>112459</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2">
+        <v>828</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="2">
+        <v>93148</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2">
+        <v>828</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="2">
         <v>82</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>93148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8440</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2">
+        <v>828</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="2">
         <v>83</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>8440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>251450</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2">
+        <v>828</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2">
+        <v>828</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="2">
+        <v>828</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>195000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="2">
+        <v>828</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>34002</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="2">
+        <v>828</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>2844</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="2">
+        <v>828</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>90</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>11236</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="2">
+        <v>828</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>91</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>2744</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="2">
+        <v>828</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>92</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>1179</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="2">
+        <v>828</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>94</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>1813</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="2">
+        <v>828</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>1426</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="2">
+        <v>828</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>2490943</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="2">
+        <v>828</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>97</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F26" s="2">
-        <v>5028.06</v>
-      </c>
-      <c r="G26" s="2">
         <v>146668.51</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="2">
+        <v>828</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="2">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3008,13 +3535,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3046,7 +3573,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
@@ -3058,13 +3585,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2">
         <v>7250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>57</v>
@@ -3090,7 +3617,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -3102,13 +3629,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2">
         <v>34400</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>57</v>
@@ -3134,7 +3661,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>42</v>
@@ -3146,13 +3673,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2">
         <v>9000000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>57</v>
@@ -3178,7 +3705,7 @@
         <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>42</v>
@@ -3190,13 +3717,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2">
         <v>225960</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>57</v>
@@ -3222,7 +3749,7 @@
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
@@ -3234,13 +3761,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2">
         <v>1500000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>57</v>
@@ -3266,7 +3793,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>42</v>
@@ -3278,13 +3805,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2">
         <v>143290</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>57</v>
@@ -3310,7 +3837,7 @@
         <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
@@ -3322,13 +3849,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2">
         <v>2500000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>57</v>
@@ -3364,14 +3891,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3381,16 +3908,16 @@
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3398,22 +3925,22 @@
         <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3421,7 +3948,7 @@
         <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -3450,16 +3977,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3467,16 +3994,16 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3484,16 +4011,16 @@
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3501,16 +4028,16 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3518,16 +4045,16 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3535,16 +4062,16 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3552,16 +4079,16 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
+++ b/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
@@ -11,7 +11,7 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
+    <sheet name="具有相當價值之財產" sheetId="5" r:id="rId5"/>
     <sheet name="保險" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -351,34 +351,10 @@
     <t>stock</t>
   </si>
   <si>
-    <t>(九）珠寶古董字晝及多</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>!額：新臺幣500000元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
     <t>朱銘雕刻</t>
   </si>
   <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -3883,83 +3859,83 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>127</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2">
+        <v>828</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="2">
         <v>128</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3977,16 +3953,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3994,16 +3970,16 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4011,16 +3987,16 @@
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4028,16 +4004,16 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4045,16 +4021,16 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4062,16 +4038,16 @@
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4079,16 +4055,16 @@
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
+++ b/legislator/property/output/normal/陳明文_2012-02-13_財產申報表_tmpf4561.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -354,24 +354,24 @@
     <t>朱銘雕刻</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>台灣人壽</t>
+  </si>
+  <si>
     <t>得意還本終身</t>
   </si>
   <si>
-    <t>88.05.07108.05.7</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>台灣人壽</t>
-  </si>
-  <si>
     <t>新富貴保本投資鏈結型保險第7期</t>
   </si>
   <si>
@@ -387,19 +387,7 @@
     <t>陳〇廷</t>
   </si>
   <si>
-    <t>100.06.13106.06.12</t>
-  </si>
-  <si>
-    <t>94.12.30100.12.30</t>
-  </si>
-  <si>
-    <t>94.12.30100.12.30(被保人:陳〇廷）</t>
-  </si>
-  <si>
-    <t>86.04.10101.04.10</t>
-  </si>
-  <si>
-    <t>97.05.19</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -3945,49 +3933,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2">
+        <v>828</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>117</v>
@@ -3998,13 +4022,31 @@
       <c r="E3" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2">
+        <v>828</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>118</v>
@@ -4013,15 +4055,33 @@
         <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2">
+        <v>828</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>118</v>
@@ -4030,15 +4090,33 @@
         <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2">
+        <v>828</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>119</v>
@@ -4047,15 +4125,33 @@
         <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2">
+        <v>828</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>120</v>
@@ -4064,7 +4160,25 @@
         <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2">
+        <v>828</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="2">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
